--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3861,4 +3862,3704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>384.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>34.7692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>281.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>25.0775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>19.8876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>16.5225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>162.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11.2308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>171.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8.9859</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.9257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.4513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2419</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9763</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9490</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7706</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3836</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0566</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5224</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5209</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4889</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001122</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>75.79</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001123</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7562,4 +7563,3284 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>31.3114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23.2527</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>341.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>21.4722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17.7601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>287.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11.7900</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>11.6441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>265.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>9.4557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8.0185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7.7477</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.7532</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>153.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.6741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1914</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3718</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2174</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6777</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6655</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6567</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3683</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3331</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8829</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7383</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7075</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10822,7 +10823,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -10838,6 +10838,106 @@
       </c>
       <c r="H86" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>190.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>153.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>115.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>144.07</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10851,7 +10852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10862,17 +10863,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10882,14 +10903,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>190.01</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.2020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -10898,14 +10941,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>153.69</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20.3184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10914,14 +10979,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>115.39</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.7676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -10930,13 +11017,6600 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>169.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14.5416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>175.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12.6389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.9596</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8.0239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>121.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7.2583</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.6607</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.9511</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.8830</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.5355</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.1507</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.7740</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.4490</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.3807</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.2868</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.0999</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.0366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.9961</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.4352</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.2539</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.2357</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.1451</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.7612</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.5942</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5224</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.4025</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3651</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3093</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1822</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1818</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1476</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0787</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0632</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9855</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>39.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9841</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8570</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8324</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8316</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7767</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011275</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7752</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7690</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7076</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6614</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6408</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5880</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011276</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>174</v>
+      </c>
+      <c r="D2" t="n">
+        <v>211.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>190.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>153.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>115.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>144.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17509,7 +17510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17520,17 +17521,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17540,14 +17561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>174</v>
-      </c>
-      <c r="D2" t="n">
-        <v>211.15</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.3259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17556,14 +17599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>85</v>
-      </c>
-      <c r="D3" t="n">
-        <v>190.01</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.3789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -17572,14 +17637,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>96</v>
-      </c>
-      <c r="D4" t="n">
-        <v>153.69</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.0395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -17588,14 +17675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>115.39</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>175.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.2591</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -17604,13 +17713,2865 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.9042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.2283</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.9642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.1894</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>115.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.7154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.8026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.3948</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.8626</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0626</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0412</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4265</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0788</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9993</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5955</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5161</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>211.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>153.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>115.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>144.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20454,7 +20455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20465,17 +20466,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20485,14 +20506,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>126.59</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>324.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.8827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -20501,14 +20544,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>174</v>
-      </c>
-      <c r="D3" t="n">
-        <v>211.15</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18.9382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -20517,14 +20582,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>85</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.01</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.2374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -20533,14 +20620,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>96</v>
-      </c>
-      <c r="D5" t="n">
-        <v>153.69</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>194.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.4488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -20549,14 +20658,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>115.39</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.8508</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -20565,13 +20696,3181 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.5543</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.0592</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.4632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.7340</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4256</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1402</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4868</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0524</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9249</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014528</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富MSCI中国A50互联互通ETF联接A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6065</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>111.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>126.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>211.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>190.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>153.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>115.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>144.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>111.07</v>
+        <v>73.06999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>126.59</v>
+        <v>111.07</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>211.15</v>
+        <v>126.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D5" t="n">
-        <v>190.01</v>
+        <v>211.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>153.69</v>
+        <v>190.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D7" t="n">
-        <v>115.39</v>
+        <v>153.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>144.07</v>
       </c>
     </row>
@@ -600,6 +617,1808 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>242.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>239.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.1448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>252.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.8269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>177.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.8667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.2062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.3586</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.9913</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.4781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0981</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4748</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2811</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7968</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7665</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3881,7 +5700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6825,7 +8644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13482,7 +15301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16761,7 +18580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20461,7 +22280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21923,7 +23742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600703-三安光电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>73.06999999999999</v>
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>111.07</v>
+        <v>73.06999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>126.59</v>
+        <v>111.07</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>211.15</v>
+        <v>126.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
-        <v>190.01</v>
+        <v>211.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
-        <v>153.69</v>
+        <v>190.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
-        <v>115.39</v>
+        <v>153.69</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1986 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>115.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>144.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>327.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>31.8583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>352.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>19.6717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>238.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>19.0737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>290.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17.0188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>16.2122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>209.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.0427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>147.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8.3592</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5507</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2543</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8947</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4453</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>55.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1834</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0816</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001122</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001123</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2590,1922 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>204.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.9560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>248.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.8001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.8147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.5423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>108.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.4703</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6962</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3801</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1521</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0352</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6819</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4340</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>45.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014174</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>45.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +6307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5700,7 +9589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8644,7 +12533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15301,7 +19190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18580,7 +22469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22280,7 +26169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23740,1960 +27629,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>327.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>31.8583</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163402</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全趋势投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>352.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>19.6717</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159995</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>238.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>19.0737</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001511</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全新视野灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>290.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>17.0188</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>184.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>16.2122</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515050</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>209.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10.0427</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512760</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰CES半导体行业ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>147.95</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8.3592</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>163412</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴全轻资产混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>83.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3.2118</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>42.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.5507</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159994</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银华中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>47.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.2543</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159801</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>26.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.79</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.1146</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000021</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏优势增长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>80.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.8947</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160527</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>23.89</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.4453</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>163411</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴全精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>55.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.1834</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.0816</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007449</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴全多维价值混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.9040</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515260</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝中证电子50ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>24.56</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7172</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159997</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>天弘中证电子ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.6009</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>159813</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5640</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006128</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银河和美生活主题混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4862</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4516</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>79.05</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3775</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001702</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方创新科技混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2834</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001396</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信互联网+产业升级股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2596</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005495</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1648</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001122</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华弘利灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1513</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1447</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1158</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001173</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>75.99</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1116</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007450</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>兴全多维价值混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007685</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华商电子行业量化股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0947</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002064</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华富产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>86.64</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0891</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001056</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>84.39</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>163116</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0729</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001739</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中融融安二号灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>62.36</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>160528</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005035</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>银华信息科技量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>82.99</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>68.31</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001734</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001735</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005496</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>001123</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>鹏华弘利灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>169201</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>88.95</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010531</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005036</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>银华信息科技量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>82.99</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001174</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>75.99</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>